--- a/target/test-classes/Jobs_test_data/jobs_API_TestData.xlsx
+++ b/target/test-classes/Jobs_test_data/jobs_API_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E6C960EE-2E1C-4AA7-924D-BA8A7AF2F911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3ACF1814-7EA7-4452-A9FF-26992B1A6386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{89F52755-1347-4991-B57A-89B1F041E64F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{89F52755-1347-4991-B57A-89B1F041E64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Post" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,10 @@
     <sheet name="Delete_Negative" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N5"/>
+  <oleSize ref="A1:I7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -456,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81521D6-D564-4FD2-96CE-35D063306AED}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -758,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3260CC6-6AD9-4125-8B3E-CC8C1FE8B5FC}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
